--- a/timetable/S5.xlsx
+++ b/timetable/S5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajen\Desktop\Course Hub\timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4A2B0D-56DF-475E-9847-8BB739B338F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742A382B-A50A-4119-B660-BF75BA99207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSE-A" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="EEE-B" sheetId="9" r:id="rId9"/>
     <sheet name="ECE-C" sheetId="10" r:id="rId10"/>
     <sheet name="MECH-A" sheetId="11" r:id="rId11"/>
+    <sheet name="BBA-A" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="300">
   <si>
     <t>Days</t>
   </si>
@@ -921,12 +922,198 @@
       <t xml:space="preserve"> DOMAIN || Automobile Engineering</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">1st July to 15 th July </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centurion University of Technology and Management </t>
+  </si>
+  <si>
+    <t>Paralakhemundi,Campus</t>
+  </si>
+  <si>
+    <t>BBA 5th Semester Time Table - 2023-26 Batch Classroom No-1</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>9:30 to 10:30</t>
+  </si>
+  <si>
+    <t>10:30 to 11:30</t>
+  </si>
+  <si>
+    <t>11:30 to 12:30</t>
+  </si>
+  <si>
+    <t>12:30 to 1:30</t>
+  </si>
+  <si>
+    <t>1:30 to 2:30</t>
+  </si>
+  <si>
+    <t>2:30 to 3:30</t>
+  </si>
+  <si>
+    <t>3:30 to 4:30</t>
+  </si>
+  <si>
+    <t>4:30 to 5:30</t>
+  </si>
+  <si>
+    <t>Climate Change, Sustainability and Organisations </t>
+  </si>
+  <si>
+    <t>JR ( Aptitude)-Mr.Soumya Kant Das</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>JR (Verbal)-Dr.Susanta Kumar Patnaik</t>
+  </si>
+  <si>
+    <t>JR ( CELTS)-Ms.Swapnankita</t>
+  </si>
+  <si>
+    <t>Business Quiz</t>
+  </si>
+  <si>
+    <t>JR ( Aptitude)-Mr.Vishal Kumar Dutta</t>
+  </si>
+  <si>
+    <t>Mentoring</t>
+  </si>
+  <si>
+    <t>CSaR</t>
+  </si>
+  <si>
+    <t>Semester-5 (2023-26)Batch</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Course Category</t>
+  </si>
+  <si>
+    <t>Name of the Subject</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>T+P+P</t>
+  </si>
+  <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>CUTM1216</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Management Accounting </t>
+  </si>
+  <si>
+    <t>4+0+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Ashutosh Parhi
+</t>
+  </si>
+  <si>
+    <t>CUVA4056</t>
+  </si>
+  <si>
+    <t>2+0+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr.Y V Pratap</t>
+  </si>
+  <si>
+    <t>CUFA0001</t>
+  </si>
+  <si>
+    <t>Introduction to Business Analytics with Power BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Kedar Nath Nayak
+</t>
+  </si>
+  <si>
+    <t>CUFA0002</t>
+  </si>
+  <si>
+    <t>Advanced Data Analytics with Power BI</t>
+  </si>
+  <si>
+    <t>CUFA0004</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Financial Valuation Modeling and Analytics</t>
+  </si>
+  <si>
+    <t>CUDM0001</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Foundations of Digital Marketing &amp; E-Commerce</t>
+  </si>
+  <si>
+    <t>1 +1+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Sushil Kumar Pradhan
+</t>
+  </si>
+  <si>
+    <t>CUDM0004</t>
+  </si>
+  <si>
+    <t>Social Media &amp; E-mail Marketing</t>
+  </si>
+  <si>
+    <t>2 +0+2</t>
+  </si>
+  <si>
+    <t>CUTM 1016</t>
+  </si>
+  <si>
+    <t>Job Readiness</t>
+  </si>
+  <si>
+    <t>0+6+0</t>
+  </si>
+  <si>
+    <t>Ms.Swapnankita,Dr.Susanta Kumar Pattnaik,Mr.Vishal Dutta,Mr.Soumya Kanta Das</t>
+  </si>
+  <si>
+    <t>CUTM1224</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,8 +1281,74 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,8 +1637,20 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99594"/>
+        <bgColor rgb="FFD99594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D69B"/>
+        <bgColor rgb="FFC2D69B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1851,11 +2116,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1920,6 +2351,341 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1971,49 +2737,27 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,711 +2766,413 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2736,22 +3182,88 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2769,6 +3281,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="571500" cy="685800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9A6C45-90B8-4395-89F6-7B4C95CA9D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="457200"/>
+          <a:ext cx="571500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3078,26 +3633,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
       <c r="A3" s="10" t="s">
@@ -3141,7 +3696,7 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="148" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -3170,7 +3725,7 @@
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
@@ -3197,17 +3752,17 @@
       <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="151"/>
     </row>
     <row r="7" spans="1:9" ht="42.75">
       <c r="A7" s="12" t="s">
@@ -3222,7 +3777,7 @@
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3249,17 +3804,17 @@
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="149"/>
       <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="151"/>
     </row>
     <row r="9" spans="1:9" ht="34.15" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -3274,11 +3829,11 @@
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
@@ -3293,27 +3848,27 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="26.45" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -3486,76 +4041,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
+      <c r="A2" s="299"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="47.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="289" t="s">
+      <c r="B4" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="291" t="s">
+      <c r="C4" s="302"/>
+      <c r="D4" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="292" t="s">
+      <c r="G4" s="84" t="s">
         <v>208</v>
       </c>
       <c r="H4" s="293" t="s">
@@ -3564,290 +4119,290 @@
       <c r="I4" s="293"/>
     </row>
     <row r="5" spans="1:9" ht="31.5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="289" t="s">
+      <c r="B5" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="290"/>
-      <c r="D5" s="182" t="s">
+      <c r="C5" s="302"/>
+      <c r="D5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="189" t="s">
+      <c r="E5" s="304"/>
+      <c r="F5" s="307" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="294" t="s">
+      <c r="G5" s="307"/>
+      <c r="H5" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="295"/>
+      <c r="I5" s="298"/>
     </row>
     <row r="6" spans="1:9" ht="31.5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="290" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="296" t="s">
+      <c r="C6" s="290"/>
+      <c r="D6" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="181" t="s">
+      <c r="E6" s="304"/>
+      <c r="F6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="297" t="s">
+      <c r="G6" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="187" t="s">
+      <c r="H6" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="187"/>
+      <c r="I6" s="294"/>
     </row>
     <row r="7" spans="1:9" ht="31.5">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="298" t="s">
+      <c r="B7" s="308" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="299"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="309"/>
+      <c r="D7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="184" t="s">
+      <c r="E7" s="304"/>
+      <c r="F7" s="290" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185" t="s">
+      <c r="G7" s="290"/>
+      <c r="H7" s="291" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="186"/>
+      <c r="I7" s="292"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="301" t="s">
+      <c r="C8" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="291" t="s">
+      <c r="D8" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="190"/>
+      <c r="E8" s="305"/>
       <c r="F8" s="293" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="293"/>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="187"/>
+      <c r="I8" s="294"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="295" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="191" t="s">
+      <c r="C9" s="296"/>
+      <c r="D9" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="187" t="s">
+      <c r="E9" s="306"/>
+      <c r="F9" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="187"/>
-      <c r="H9" s="294" t="s">
+      <c r="G9" s="294"/>
+      <c r="H9" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="295"/>
+      <c r="I9" s="298"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="A12" s="287"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="289"/>
     </row>
     <row r="13" spans="1:9" ht="25.5">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="193">
+      <c r="A14" s="87">
         <v>1</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="41">
         <v>4</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="194" t="s">
+      <c r="F14" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="193">
+      <c r="A15" s="87">
         <v>2</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="41">
         <v>4</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="194" t="s">
+      <c r="F15" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="52" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="193">
+      <c r="A16" s="87">
         <v>3</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="41">
         <v>3</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="194" t="s">
+      <c r="F16" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="193">
+      <c r="A17" s="87">
         <v>4</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="41">
         <v>3</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="194" t="s">
+      <c r="F17" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="193">
+      <c r="A18" s="87">
         <v>5</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="41">
         <v>2</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="194" t="s">
+      <c r="F18" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="25.5">
-      <c r="A19" s="193">
+      <c r="A19" s="87">
         <v>6</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="41">
         <v>4</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="194" t="s">
+      <c r="F19" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
@@ -3856,14 +4411,6 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -3874,6 +4421,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3883,48 +4438,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3887716-C8D9-4DB8-988E-55A6B514877B}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="22" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="22" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -3953,165 +4508,165 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="312" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="302" t="s">
+      <c r="C4" s="312"/>
+      <c r="D4" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="185" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="307" t="s">
+      <c r="G4" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="151"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="151"/>
+      <c r="C5" s="207"/>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="308"/>
-      <c r="F5" s="151" t="s">
+      <c r="E5" s="313"/>
+      <c r="F5" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="151"/>
-      <c r="H5" s="309" t="s">
+      <c r="G5" s="207"/>
+      <c r="H5" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="309"/>
+      <c r="I5" s="314"/>
     </row>
     <row r="6" spans="1:9" ht="42.75">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="307" t="s">
+      <c r="C6" s="207"/>
+      <c r="D6" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="308"/>
+      <c r="E6" s="313"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="302" t="s">
+      <c r="G6" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="310" t="s">
+      <c r="C7" s="136" t="s">
         <v>221</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="311" t="s">
+      <c r="E7" s="313"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="312" t="s">
+      <c r="H7" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="312"/>
+      <c r="I7" s="315"/>
     </row>
     <row r="8" spans="1:9" ht="28.5">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="311" t="s">
+      <c r="C8" s="137" t="s">
         <v>222</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="313" t="s">
+      <c r="E8" s="313"/>
+      <c r="F8" s="310" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="313"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="310"/>
+      <c r="H8" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="314" t="s">
+      <c r="B9" s="311" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="314"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="311"/>
+      <c r="D9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="308"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="313"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="42.75">
       <c r="A14" s="2" t="s">
@@ -4158,7 +4713,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="315" t="s">
+      <c r="H15" s="138" t="s">
         <v>227</v>
       </c>
       <c r="I15" s="6"/>
@@ -4181,7 +4736,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="315" t="s">
+      <c r="H16" s="138" t="s">
         <v>227</v>
       </c>
       <c r="I16" s="5"/>
@@ -4204,7 +4759,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="315" t="s">
+      <c r="H17" s="138" t="s">
         <v>233</v>
       </c>
       <c r="I17" s="5"/>
@@ -4227,21 +4782,21 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="315" t="s">
+      <c r="H18" s="138" t="s">
         <v>237</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="49.15" customHeight="1">
-      <c r="A19" s="304"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="237"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" ht="49.15" customHeight="1">
       <c r="A20" s="4"/>
@@ -4256,11 +4811,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
@@ -4272,8 +4822,576 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D80B9C-1D1A-4827-8A51-48C418C97B5E}">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="316" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="318"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="A2" s="319"/>
+      <c r="B2" s="320" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="322"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A3" s="323"/>
+      <c r="B3" s="324" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="325"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A4" s="326"/>
+      <c r="B4" s="327" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="329"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5">
+      <c r="A5" s="330" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="331" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="332" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="333" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="333" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="333" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="334" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="335" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="335" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="318"/>
+      <c r="D6" s="338" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="338" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="339" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="341" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="318"/>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="318"/>
+      <c r="D7" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="342" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="343"/>
+      <c r="G7" s="342" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="344" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="342" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="336" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="318"/>
+      <c r="D8" s="342" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="338"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="341" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="318"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="336" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="318"/>
+      <c r="D9" s="345" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="318"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="341" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="318"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="318"/>
+      <c r="D10" s="342" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="338" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="343"/>
+      <c r="G10" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="341" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="318"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="336" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="318"/>
+      <c r="D11" s="345" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="318"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="340" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="341" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="318"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="347"/>
+      <c r="B13" s="348" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="318"/>
+      <c r="H13" s="347"/>
+      <c r="I13" s="347"/>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A14" s="347"/>
+      <c r="B14" s="349" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="349" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="349" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="349" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="349" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="349" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="347"/>
+      <c r="I14" s="347"/>
+    </row>
+    <row r="15" spans="1:9" ht="31.5">
+      <c r="A15" s="347"/>
+      <c r="B15" s="350" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="350" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="350">
+        <v>6</v>
+      </c>
+      <c r="F15" s="350" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="350" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="347"/>
+      <c r="I15" s="347"/>
+    </row>
+    <row r="16" spans="1:9" ht="31.5">
+      <c r="B16" s="350" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="350" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="350">
+        <v>3</v>
+      </c>
+      <c r="F16" s="350" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="350" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="39" customHeight="1">
+      <c r="B17" s="350" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="350" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="350">
+        <v>4</v>
+      </c>
+      <c r="F17" s="350" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="31.5">
+      <c r="B18" s="350" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="350" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="350">
+        <v>4</v>
+      </c>
+      <c r="F18" s="350" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="31.5">
+      <c r="B19" s="350" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="350" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="350" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="350">
+        <v>3</v>
+      </c>
+      <c r="F19" s="350" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B20" s="350" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="350" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="350" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="350">
+        <v>2</v>
+      </c>
+      <c r="F20" s="350" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="350" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B21" s="350" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="350" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="350" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="350">
+        <v>4</v>
+      </c>
+      <c r="F21" s="350" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="350" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B22" s="350" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="350" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="350">
+        <v>6</v>
+      </c>
+      <c r="F22" s="350" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="350" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B23" s="350" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="350" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="350" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="350">
+        <v>4</v>
+      </c>
+      <c r="F23" s="350" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="350" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4287,42 +5405,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4351,50 +5469,50 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="172"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
@@ -4403,88 +5521,88 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="172"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="71"/>
+      <c r="I7" s="176"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="176"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77" t="s">
+      <c r="G8" s="179"/>
+      <c r="H8" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="159"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="166"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
@@ -4493,33 +5611,33 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="42.75">
       <c r="A14" s="2" t="s">
@@ -4680,11 +5798,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="H4:I4"/>
@@ -4695,6 +5808,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4710,60 +5828,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="20.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="20.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="99"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -4774,17 +5892,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="185" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -4793,144 +5911,144 @@
       <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="89"/>
+      <c r="I4" s="182"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="180"/>
+      <c r="H5" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:9" ht="28.5">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="90"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="186"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="93" t="s">
+      <c r="E7" s="186"/>
+      <c r="F7" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="93"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="180"/>
       <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="88" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="182"/>
+      <c r="H8" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="180"/>
+      <c r="D9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="186"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="96" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="96"/>
+      <c r="I9" s="183"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="42.75">
       <c r="A14" s="2" t="s">
@@ -5063,10 +6181,10 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -5085,14 +6203,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -5103,6 +6213,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5118,420 +6236,415 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="24.42578125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="53" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="23" style="53" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="24.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="23" style="33" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="190"/>
+      <c r="D4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="131" t="s">
+      <c r="H4" s="190"/>
+      <c r="I4" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="103" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="190"/>
+      <c r="D6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="129" t="s">
+      <c r="E6" s="170"/>
+      <c r="F6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="126"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="106" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="104" t="s">
+      <c r="G7" s="190"/>
+      <c r="H7" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="54" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="190"/>
+      <c r="D8" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="109" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="134" t="s">
+      <c r="G8" s="190"/>
+      <c r="H8" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="126"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="135" t="s">
+      <c r="C9" s="190"/>
+      <c r="D9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="134" t="s">
+      <c r="E9" s="166"/>
+      <c r="F9" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="G9" s="190"/>
+      <c r="H9" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="196"/>
     </row>
     <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="112" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="56" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="114">
+      <c r="A15" s="58">
         <v>1</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="59">
         <v>2</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="59">
         <v>5</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="115" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="62" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="114">
+      <c r="A16" s="58">
         <v>2</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="59">
         <v>3</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="59">
         <v>5</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="115" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="118" t="s">
+      <c r="I16" s="62" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="114">
+      <c r="A17" s="58">
         <v>3</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="59">
         <v>3</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="58">
         <v>5</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="115" t="s">
+      <c r="G17" s="61"/>
+      <c r="H17" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="62" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.5">
-      <c r="A18" s="114">
+      <c r="A18" s="58">
         <v>4</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="59">
         <v>3</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="59">
         <v>5</v>
       </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="115" t="s">
+      <c r="G18" s="61"/>
+      <c r="H18" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="62" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A19" s="114">
+      <c r="A19" s="58">
         <v>5</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="59">
         <v>3</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="115">
+      <c r="F19" s="59">
         <v>5</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="115" t="s">
+      <c r="G19" s="64"/>
+      <c r="H19" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="118" t="s">
+      <c r="I19" s="62" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="120"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="117"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -5542,6 +6655,11 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5557,42 +6675,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="20.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="20.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -5621,171 +6739,171 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="69"/>
+      <c r="I4" s="174"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="37" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="148" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="150"/>
+      <c r="I5" s="209"/>
     </row>
     <row r="6" spans="1:9" ht="28.5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="143"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="142" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="64" t="s">
+      <c r="G7" s="206"/>
+      <c r="H7" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="145"/>
+      <c r="C8" s="213"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="142" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="77" t="s">
+      <c r="G8" s="206"/>
+      <c r="H8" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152" t="s">
+      <c r="C9" s="207"/>
+      <c r="D9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="166"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="149" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="150"/>
+      <c r="I9" s="209"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="42.75">
       <c r="A14" s="2" t="s">
@@ -5818,16 +6936,16 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="49">
         <v>4</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
       <c r="F15" s="5">
@@ -5845,16 +6963,16 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="49">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="49" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="5">
@@ -5872,16 +6990,16 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="49">
         <v>4</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="49" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="5">
@@ -5899,16 +7017,16 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="49">
         <v>4</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="49" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="5">
@@ -5926,16 +7044,16 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="49">
         <v>4</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="49" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="5">
@@ -5962,13 +7080,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -5979,6 +7090,13 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5994,42 +7112,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="22" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="22" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -6058,165 +7176,165 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="222"/>
       <c r="D4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="226" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="172"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="227" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="160" t="s">
+      <c r="E5" s="223"/>
+      <c r="F5" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="149" t="s">
+      <c r="G5" s="230"/>
+      <c r="H5" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="150"/>
+      <c r="I5" s="209"/>
     </row>
     <row r="6" spans="1:9" ht="42.75">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="154" t="s">
+      <c r="C6" s="231"/>
+      <c r="D6" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="224"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="232" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166" t="s">
+      <c r="C7" s="233"/>
+      <c r="D7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="167" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169" t="s">
+      <c r="G7" s="215"/>
+      <c r="H7" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="170"/>
+      <c r="I7" s="217"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="219"/>
       <c r="D8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="223"/>
+      <c r="F8" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77" t="s">
+      <c r="G8" s="179"/>
+      <c r="H8" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="174"/>
+      <c r="C9" s="221"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="225"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="149" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="150"/>
+      <c r="I9" s="209"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1"/>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="42.75">
       <c r="A14" s="2" t="s">
@@ -6369,6 +7487,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="F7:G7"/>
@@ -6379,16 +7507,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6404,44 +7522,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="242" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="196"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
     </row>
     <row r="3" spans="1:9" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -6470,148 +7588,148 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="201"/>
+      <c r="I4" s="244"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="203"/>
+      <c r="C5" s="246"/>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="204" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="204"/>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:9" ht="28.5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="247"/>
+      <c r="D6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:9" ht="28.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="158" t="s">
+      <c r="C7" s="246"/>
+      <c r="D7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="207" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="234" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="207"/>
-      <c r="H7" s="200" t="s">
+      <c r="G7" s="234"/>
+      <c r="H7" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="208"/>
+      <c r="I7" s="236"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="204" t="s">
+      <c r="E8" s="193"/>
+      <c r="F8" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="239"/>
+      <c r="H8" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="240" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="210" t="s">
+      <c r="C9" s="241"/>
+      <c r="D9" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="167"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="88" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="89"/>
+      <c r="I9" s="182"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1"/>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
     </row>
     <row r="13" spans="1:9" ht="42.75">
       <c r="A13" s="2" t="s">
@@ -6641,7 +7759,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="195">
+      <c r="A14" s="44">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -6656,7 +7774,7 @@
       <c r="E14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="211" t="s">
+      <c r="F14" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G14" s="5"/>
@@ -6666,7 +7784,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="195">
+      <c r="A15" s="44">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6681,7 +7799,7 @@
       <c r="E15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="211" t="s">
+      <c r="F15" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G15" s="4"/>
@@ -6691,7 +7809,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="195">
+      <c r="A16" s="44">
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -6706,7 +7824,7 @@
       <c r="E16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="211" t="s">
+      <c r="F16" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G16" s="5"/>
@@ -6716,7 +7834,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="28.5">
-      <c r="A17" s="195">
+      <c r="A17" s="44">
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -6731,7 +7849,7 @@
       <c r="E17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G17" s="5"/>
@@ -6741,7 +7859,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="42.75">
-      <c r="A18" s="195">
+      <c r="A18" s="44">
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -6756,7 +7874,7 @@
       <c r="E18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="211" t="s">
+      <c r="F18" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G18" s="4"/>
@@ -6767,15 +7885,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -6786,6 +7895,15 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6801,42 +7919,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="53"/>
-    <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="53" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="236" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="53"/>
+    <col min="1" max="1" width="12.7109375" style="33"/>
+    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="33" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="96" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:12" ht="4.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:12" ht="28.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -6865,168 +7983,168 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="259" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="214" t="s">
+      <c r="C4" s="260"/>
+      <c r="D4" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="216" t="s">
+      <c r="H4" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="217" t="s">
+      <c r="I4" s="90" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="261" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="219"/>
+      <c r="C5" s="262"/>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="220" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="263" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="221"/>
-      <c r="H5" s="222" t="s">
+      <c r="G5" s="264"/>
+      <c r="H5" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="223"/>
+      <c r="I5" s="258"/>
     </row>
     <row r="6" spans="1:12" ht="42.75">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="252" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="225"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="214" t="s">
+      <c r="G6" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:12" ht="28.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="259" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="158" t="s">
+      <c r="C7" s="260"/>
+      <c r="D7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="224" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="252" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226" t="s">
+      <c r="G7" s="265"/>
+      <c r="H7" s="250" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="227"/>
+      <c r="I7" s="251"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="252" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="214" t="s">
+      <c r="C8" s="253"/>
+      <c r="D8" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="229" t="s">
+      <c r="E8" s="193"/>
+      <c r="F8" s="254" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="255"/>
+      <c r="H8" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="L8" s="231"/>
+      <c r="I8" s="160"/>
+      <c r="L8" s="94"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="250" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233" t="s">
+      <c r="C9" s="256"/>
+      <c r="D9" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="167"/>
+      <c r="F9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="222" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="223"/>
+      <c r="I9" s="258"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1"/>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:12" ht="28.5">
       <c r="A14" s="2" t="s">
@@ -7056,7 +8174,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="42.75">
-      <c r="A15" s="195">
+      <c r="A15" s="44">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -7071,7 +8189,7 @@
       <c r="E15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="211" t="s">
+      <c r="F15" s="45" t="s">
         <v>171</v>
       </c>
       <c r="G15" s="6"/>
@@ -7083,7 +8201,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="42.75">
-      <c r="A16" s="195">
+      <c r="A16" s="44">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7098,7 +8216,7 @@
       <c r="E16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="211" t="s">
+      <c r="F16" s="45" t="s">
         <v>171</v>
       </c>
       <c r="G16" s="9"/>
@@ -7110,7 +8228,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5">
-      <c r="A17" s="195">
+      <c r="A17" s="44">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7125,7 +8243,7 @@
       <c r="E17" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="45" t="s">
         <v>171</v>
       </c>
       <c r="G17" s="6"/>
@@ -7137,7 +8255,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="42.75">
-      <c r="A18" s="195">
+      <c r="A18" s="44">
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -7152,7 +8270,7 @@
       <c r="E18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="211" t="s">
+      <c r="F18" s="45" t="s">
         <v>171</v>
       </c>
       <c r="G18" s="6"/>
@@ -7164,7 +8282,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="195">
+      <c r="A19" s="44">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7179,7 +8297,7 @@
       <c r="E19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="211" t="s">
+      <c r="F19" s="45" t="s">
         <v>171</v>
       </c>
       <c r="G19" s="9"/>
@@ -7192,10 +8310,10 @@
     </row>
     <row r="20" spans="1:9" ht="49.15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="4"/>
       <c r="G20" s="9"/>
       <c r="H20" s="4"/>
@@ -7203,15 +8321,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -7222,6 +8331,15 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7237,406 +8355,399 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="20" style="53" customWidth="1"/>
-    <col min="6" max="6" width="19" style="53" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="280" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="18.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20" style="33" customWidth="1"/>
+    <col min="6" max="6" width="19" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="120" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="276" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="281"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
+      <c r="A2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="283" t="s">
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="283" t="s">
+      <c r="E3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="283" t="s">
+      <c r="F3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="283" t="s">
+      <c r="G3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="283" t="s">
+      <c r="I3" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="268" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240" t="s">
+      <c r="C4" s="269"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="277" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="255" t="s">
+      <c r="G4" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="280" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="242"/>
+      <c r="I4" s="281"/>
     </row>
     <row r="5" spans="1:9" ht="42.75">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="271" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="256"/>
+      <c r="C5" s="271"/>
       <c r="D5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="243"/>
-      <c r="F5" s="244" t="s">
+      <c r="E5" s="278"/>
+      <c r="F5" s="282" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="258"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="275"/>
     </row>
     <row r="6" spans="1:9" ht="42.75">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="283" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="259" t="s">
+      <c r="C6" s="284"/>
+      <c r="D6" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="243"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261" t="s">
+      <c r="G6" s="103"/>
+      <c r="H6" s="285" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="262"/>
+      <c r="I6" s="286"/>
     </row>
     <row r="7" spans="1:9" ht="42.75">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="270" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="247"/>
+      <c r="C7" s="270"/>
       <c r="D7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="243"/>
-      <c r="F7" s="248" t="s">
+      <c r="E7" s="278"/>
+      <c r="F7" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="253" t="s">
+      <c r="G7" s="267"/>
+      <c r="H7" s="268" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="254"/>
+      <c r="I7" s="269"/>
     </row>
     <row r="8" spans="1:9" ht="57">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="270" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="263" t="s">
+      <c r="C8" s="270"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="264" t="s">
+      <c r="G8" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="256" t="s">
+      <c r="H8" s="271" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="256"/>
+      <c r="I8" s="271"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="265" t="s">
+      <c r="B9" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="250" t="s">
+      <c r="C9" s="272" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="248" t="s">
+      <c r="D9" s="273"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="249"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="258"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="275"/>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="266" t="s">
+      <c r="A12" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="267" t="s">
+      <c r="D12" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="267" t="s">
+      <c r="E12" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="268" t="s">
+      <c r="F12" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="269"/>
-      <c r="H12" s="270" t="s">
+      <c r="G12" s="109"/>
+      <c r="H12" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="286" t="s">
+      <c r="I12" s="124" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75">
-      <c r="A13" s="271">
+      <c r="A13" s="111">
         <v>1</v>
       </c>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="272" t="s">
+      <c r="C13" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="273">
+      <c r="D13" s="113">
         <v>2</v>
       </c>
-      <c r="E13" s="274" t="s">
+      <c r="E13" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="273" t="s">
+      <c r="F13" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="273"/>
-      <c r="H13" s="275" t="s">
+      <c r="G13" s="113"/>
+      <c r="H13" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="287"/>
+      <c r="I13" s="125"/>
     </row>
     <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="276">
+      <c r="A14" s="116">
         <v>2</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="277" t="s">
+      <c r="C14" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="118">
         <v>3</v>
       </c>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="273" t="s">
+      <c r="F14" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="273"/>
-      <c r="H14" s="288" t="s">
+      <c r="G14" s="113"/>
+      <c r="H14" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="I14" s="287"/>
+      <c r="I14" s="125"/>
     </row>
     <row r="15" spans="1:9" ht="28.5">
-      <c r="A15" s="271">
+      <c r="A15" s="111">
         <v>3</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="277" t="s">
+      <c r="C15" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="118">
         <v>3</v>
       </c>
-      <c r="E15" s="274" t="s">
+      <c r="E15" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="273" t="s">
+      <c r="F15" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="273"/>
-      <c r="H15" s="288" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="287"/>
+      <c r="I15" s="125"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="276">
+      <c r="A16" s="116">
         <v>4</v>
       </c>
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="279" t="s">
+      <c r="C16" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="265">
+      <c r="D16" s="105">
         <v>3</v>
       </c>
-      <c r="E16" s="274" t="s">
+      <c r="E16" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="273" t="s">
+      <c r="F16" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="273"/>
-      <c r="H16" s="288" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="287"/>
+      <c r="I16" s="125"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="271">
+      <c r="A17" s="111">
         <v>5</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="279" t="s">
+      <c r="C17" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="265">
+      <c r="D17" s="105">
         <v>1</v>
       </c>
-      <c r="E17" s="274" t="s">
+      <c r="E17" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="273" t="s">
+      <c r="F17" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="273"/>
-      <c r="H17" s="288" t="s">
+      <c r="G17" s="113"/>
+      <c r="H17" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="287"/>
+      <c r="I17" s="125"/>
     </row>
     <row r="18" spans="1:9" ht="28.5">
-      <c r="A18" s="271">
+      <c r="A18" s="111">
         <v>6</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="279" t="s">
+      <c r="C18" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="265">
+      <c r="D18" s="105">
         <v>2</v>
       </c>
-      <c r="E18" s="274" t="s">
+      <c r="E18" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="273" t="s">
+      <c r="F18" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="273"/>
-      <c r="H18" s="288" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="287"/>
+      <c r="I18" s="125"/>
     </row>
     <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="276">
+      <c r="A19" s="116">
         <v>7</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="279" t="s">
+      <c r="C19" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="265">
+      <c r="D19" s="105">
         <v>6</v>
       </c>
-      <c r="E19" s="274" t="s">
+      <c r="E19" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="273" t="s">
+      <c r="F19" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="273"/>
-      <c r="H19" s="288" t="s">
+      <c r="G19" s="113"/>
+      <c r="H19" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="287"/>
+      <c r="I19" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -7647,6 +8758,13 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timetable/S5.xlsx
+++ b/timetable/S5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajen\Desktop\Course Hub\timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/-CourseHub/timetable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742A382B-A50A-4119-B660-BF75BA99207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{742A382B-A50A-4119-B660-BF75BA99207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8D222A-AFF0-4E0C-9BDF-7667997F1734}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSE-A" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,19 @@
     <sheet name="BBA-A" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2686,6 +2699,46 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2736,27 +2789,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2791,42 +2823,87 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,29 +2913,17 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2866,50 +2931,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2945,47 +2974,101 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2999,9 +3082,6 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,32 +3094,56 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3047,98 +3151,11 @@
     <xf numFmtId="0" fontId="1" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3158,13 +3175,61 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3173,99 +3238,47 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3615,46 +3628,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="1"/>
+    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:9" ht="14">
+      <c r="A1" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="147"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3683,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3709,7 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="162" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -3712,7 +3725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.6" customHeight="1">
+    <row r="5" spans="1:9" ht="36.65" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -3725,7 +3738,7 @@
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="149"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5">
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -3752,19 +3765,19 @@
       <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="149"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="151"/>
-    </row>
-    <row r="7" spans="1:9" ht="42.75">
+      <c r="I6" s="165"/>
+    </row>
+    <row r="7" spans="1:9" ht="42">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +3790,7 @@
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="149"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33.6" customHeight="1">
+    <row r="8" spans="1:9" ht="33.65" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -3804,17 +3817,17 @@
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="149"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="151"/>
+      <c r="I8" s="165"/>
     </row>
     <row r="9" spans="1:9" ht="34.15" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -3829,11 +3842,11 @@
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="152" t="s">
+      <c r="E9" s="159"/>
+      <c r="F9" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="152"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
@@ -3841,36 +3854,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.45" customHeight="1">
+    <row r="11" spans="1:9" ht="20.5" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.45" customHeight="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4028,43 +4041,43 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="301" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="299"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="A2" s="301"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4093,18 +4106,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="47.25">
+    <row r="4" spans="1:9" ht="31">
       <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="303" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="302"/>
+      <c r="C4" s="304"/>
       <c r="D4" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="305" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="82" t="s">
@@ -4113,77 +4126,77 @@
       <c r="G4" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="293" t="s">
+      <c r="H4" s="309" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="293"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5">
+      <c r="I4" s="309"/>
+    </row>
+    <row r="5" spans="1:9" ht="31">
       <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="301" t="s">
+      <c r="B5" s="303" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="302"/>
+      <c r="C5" s="304"/>
       <c r="D5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="304"/>
-      <c r="F5" s="307" t="s">
+      <c r="E5" s="306"/>
+      <c r="F5" s="310" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="307"/>
-      <c r="H5" s="297" t="s">
+      <c r="G5" s="310"/>
+      <c r="H5" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="298"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5">
+      <c r="I5" s="312"/>
+    </row>
+    <row r="6" spans="1:9" ht="31">
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="313" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="290"/>
+      <c r="C6" s="313"/>
       <c r="D6" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="304"/>
+      <c r="E6" s="306"/>
       <c r="F6" s="82" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="294" t="s">
+      <c r="H6" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="294"/>
-    </row>
-    <row r="7" spans="1:9" ht="31.5">
+      <c r="I6" s="314"/>
+    </row>
+    <row r="7" spans="1:9" ht="31">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="308" t="s">
+      <c r="B7" s="315" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="309"/>
+      <c r="C7" s="316"/>
       <c r="D7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="304"/>
-      <c r="F7" s="290" t="s">
+      <c r="E7" s="306"/>
+      <c r="F7" s="313" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="290"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="313"/>
+      <c r="H7" s="320" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="292"/>
-    </row>
-    <row r="8" spans="1:9" ht="31.5">
+      <c r="I7" s="321"/>
+    </row>
+    <row r="8" spans="1:9" ht="31">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
@@ -4196,50 +4209,50 @@
       <c r="D8" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="305"/>
-      <c r="F8" s="293" t="s">
+      <c r="E8" s="307"/>
+      <c r="F8" s="309" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="293"/>
-      <c r="H8" s="294" t="s">
+      <c r="G8" s="309"/>
+      <c r="H8" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="294"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="I8" s="314"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="295" t="s">
+      <c r="B9" s="322" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="296"/>
+      <c r="C9" s="323"/>
       <c r="D9" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="306"/>
-      <c r="F9" s="294" t="s">
+      <c r="E9" s="308"/>
+      <c r="F9" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="294"/>
-      <c r="H9" s="297" t="s">
+      <c r="G9" s="314"/>
+      <c r="H9" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="298"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="287"/>
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="289"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.5">
+      <c r="I9" s="312"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="317"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="319"/>
+    </row>
+    <row r="13" spans="1:9" ht="26">
       <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
@@ -4266,7 +4279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="29">
       <c r="A14" s="87">
         <v>1</v>
       </c>
@@ -4312,7 +4325,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="29">
       <c r="A16" s="87">
         <v>3</v>
       </c>
@@ -4335,7 +4348,7 @@
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="29">
       <c r="A17" s="87">
         <v>4</v>
       </c>
@@ -4381,7 +4394,7 @@
       </c>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5">
+    <row r="19" spans="1:9" ht="26">
       <c r="A19" s="87">
         <v>6</v>
       </c>
@@ -4411,6 +4424,14 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -4421,14 +4442,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4442,43 +4455,43 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="18.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
     <col min="7" max="7" width="22" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -4507,18 +4520,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="312" t="s">
+      <c r="B4" s="324" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="312"/>
+      <c r="C4" s="324"/>
       <c r="D4" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="196" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -4527,56 +4540,56 @@
       <c r="G4" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="227" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="207"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="227"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="227" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="207"/>
+      <c r="C5" s="227"/>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="313"/>
-      <c r="F5" s="207" t="s">
+      <c r="E5" s="325"/>
+      <c r="F5" s="227" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="314" t="s">
+      <c r="G5" s="227"/>
+      <c r="H5" s="326" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="314"/>
-    </row>
-    <row r="6" spans="1:9" ht="42.75">
+      <c r="I5" s="326"/>
+    </row>
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="227" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="207"/>
+      <c r="C6" s="227"/>
       <c r="D6" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="313"/>
+      <c r="E6" s="325"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="H6" s="191" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="191"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
@@ -4589,17 +4602,17 @@
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="313"/>
+      <c r="E7" s="325"/>
       <c r="F7" s="132"/>
       <c r="G7" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="315" t="s">
+      <c r="H7" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="315"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5">
+      <c r="I7" s="327"/>
+    </row>
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
@@ -4610,32 +4623,32 @@
         <v>222</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="310" t="s">
+      <c r="E8" s="325"/>
+      <c r="F8" s="328" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="310"/>
-      <c r="H8" s="160" t="s">
+      <c r="G8" s="328"/>
+      <c r="H8" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="160"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="311" t="s">
+      <c r="B9" s="329" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="311"/>
+      <c r="C9" s="329"/>
       <c r="D9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="313"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="325"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="191"/>
       <c r="H9" s="132"/>
       <c r="I9" s="132"/>
     </row>
@@ -4646,29 +4659,29 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.75">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4695,7 +4708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -4718,7 +4731,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="28.5">
+    <row r="16" spans="1:9" ht="28">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -4764,7 +4777,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -4836,457 +4849,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D80B9C-1D1A-4827-8A51-48C418C97B5E}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
-      <c r="A1" s="316" t="s">
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="A1" s="336" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="318"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="319"/>
-      <c r="B2" s="320" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="331"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.5">
+      <c r="A2" s="337"/>
+      <c r="B2" s="340" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="322"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="324" t="s">
+      <c r="A3" s="338"/>
+      <c r="B3" s="343" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="325"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="344"/>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A4" s="326"/>
-      <c r="B4" s="327" t="s">
+      <c r="A4" s="339"/>
+      <c r="B4" s="345" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="329"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5">
-      <c r="A5" s="330" t="s">
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="347"/>
+    </row>
+    <row r="5" spans="1:9" ht="31">
+      <c r="A5" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="331" t="s">
+      <c r="B5" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="332" t="s">
+      <c r="C5" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="333" t="s">
+      <c r="D5" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="333" t="s">
+      <c r="E5" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="333" t="s">
+      <c r="F5" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="334" t="s">
+      <c r="G5" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="335" t="s">
+      <c r="H5" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="I5" s="335" t="s">
+      <c r="I5" s="144" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="336" t="s">
+    <row r="6" spans="1:9" ht="15.5">
+      <c r="A6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="318"/>
-      <c r="D6" s="338" t="s">
+      <c r="C6" s="331"/>
+      <c r="D6" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="338" t="s">
+      <c r="E6" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="339" t="s">
+      <c r="F6" s="348" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="340" t="s">
+      <c r="G6" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="341" t="s">
+      <c r="H6" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="318"/>
-    </row>
-    <row r="7" spans="1:9" ht="45">
-      <c r="A7" s="336" t="s">
+      <c r="I6" s="331"/>
+    </row>
+    <row r="7" spans="1:9" ht="42">
+      <c r="A7" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="340" t="s">
+      <c r="C7" s="331"/>
+      <c r="D7" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="342" t="s">
+      <c r="E7" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="343"/>
-      <c r="G7" s="342" t="s">
+      <c r="F7" s="349"/>
+      <c r="G7" s="148" t="s">
         <v>252</v>
       </c>
-      <c r="H7" s="344" t="s">
+      <c r="H7" s="149" t="s">
         <v>254</v>
       </c>
-      <c r="I7" s="342" t="s">
+      <c r="I7" s="148" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="336" t="s">
+    <row r="8" spans="1:9" ht="15.5">
+      <c r="A8" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="337" t="s">
+      <c r="B8" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="318"/>
-      <c r="D8" s="342" t="s">
+      <c r="C8" s="331"/>
+      <c r="D8" s="148" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="338"/>
-      <c r="F8" s="343"/>
-      <c r="G8" s="340" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="341" t="s">
+      <c r="H8" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="318"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="336" t="s">
+      <c r="I8" s="331"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5">
+      <c r="A9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="337" t="s">
+      <c r="B9" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="318"/>
-      <c r="D9" s="345" t="s">
+      <c r="C9" s="331"/>
+      <c r="D9" s="332" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="318"/>
-      <c r="F9" s="343"/>
-      <c r="G9" s="340" t="s">
+      <c r="E9" s="331"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="H9" s="341" t="s">
+      <c r="H9" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="318"/>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="336" t="s">
+      <c r="I9" s="331"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5">
+      <c r="A10" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="318"/>
-      <c r="D10" s="342" t="s">
+      <c r="C10" s="331"/>
+      <c r="D10" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="338" t="s">
+      <c r="E10" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="343"/>
-      <c r="G10" s="340" t="s">
+      <c r="F10" s="349"/>
+      <c r="G10" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="341" t="s">
+      <c r="H10" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="318"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="336" t="s">
+      <c r="I10" s="331"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5">
+      <c r="A11" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="318"/>
-      <c r="D11" s="345" t="s">
+      <c r="C11" s="331"/>
+      <c r="D11" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="318"/>
-      <c r="F11" s="346"/>
-      <c r="G11" s="340" t="s">
+      <c r="E11" s="331"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="341" t="s">
+      <c r="H11" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="318"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="347"/>
-      <c r="B13" s="348" t="s">
+      <c r="I11" s="331"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5">
+      <c r="A13" s="150"/>
+      <c r="B13" s="334" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="317"/>
-      <c r="D13" s="317"/>
-      <c r="E13" s="317"/>
-      <c r="F13" s="317"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="347"/>
-      <c r="I13" s="347"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="335"/>
+      <c r="G13" s="331"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A14" s="347"/>
-      <c r="B14" s="349" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="349" t="s">
+      <c r="C14" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="349" t="s">
+      <c r="D14" s="151" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="349" t="s">
+      <c r="E14" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="349" t="s">
+      <c r="F14" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="349" t="s">
+      <c r="G14" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="347"/>
-      <c r="I14" s="347"/>
-    </row>
-    <row r="15" spans="1:9" ht="31.5">
-      <c r="A15" s="347"/>
-      <c r="B15" s="350" t="s">
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+    </row>
+    <row r="15" spans="1:9" ht="31">
+      <c r="A15" s="150"/>
+      <c r="B15" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="350" t="s">
+      <c r="C15" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="350" t="s">
+      <c r="D15" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="350">
+      <c r="E15" s="152">
         <v>6</v>
       </c>
-      <c r="F15" s="350" t="s">
+      <c r="F15" s="152" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="350" t="s">
+      <c r="G15" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="347"/>
-      <c r="I15" s="347"/>
-    </row>
-    <row r="16" spans="1:9" ht="31.5">
-      <c r="B16" s="350" t="s">
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+    </row>
+    <row r="16" spans="1:9" ht="31">
+      <c r="B16" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="350" t="s">
+      <c r="C16" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="350" t="s">
+      <c r="D16" s="152" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="350">
+      <c r="E16" s="152">
         <v>3</v>
       </c>
-      <c r="F16" s="350" t="s">
+      <c r="F16" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="350" t="s">
+      <c r="G16" s="152" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="39" customHeight="1">
-      <c r="B17" s="350" t="s">
+      <c r="B17" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="350" t="s">
+      <c r="C17" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="350" t="s">
+      <c r="D17" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="E17" s="350">
+      <c r="E17" s="152">
         <v>4</v>
       </c>
-      <c r="F17" s="350" t="s">
+      <c r="F17" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="350" t="s">
+      <c r="G17" s="152" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="31.5">
-      <c r="B18" s="350" t="s">
+    <row r="18" spans="2:7" ht="31">
+      <c r="B18" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="350" t="s">
+      <c r="C18" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="350" t="s">
+      <c r="D18" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="E18" s="350">
+      <c r="E18" s="152">
         <v>4</v>
       </c>
-      <c r="F18" s="350" t="s">
+      <c r="F18" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="350" t="s">
+      <c r="G18" s="152" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="31.5">
-      <c r="B19" s="350" t="s">
+    <row r="19" spans="2:7" ht="31">
+      <c r="B19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="350" t="s">
+      <c r="C19" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D19" s="350" t="s">
+      <c r="D19" s="152" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="350">
+      <c r="E19" s="152">
         <v>3</v>
       </c>
-      <c r="F19" s="350" t="s">
+      <c r="F19" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="350" t="s">
+      <c r="G19" s="152" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B20" s="350" t="s">
+      <c r="B20" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="350" t="s">
+      <c r="C20" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="350" t="s">
+      <c r="D20" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="350">
+      <c r="E20" s="152">
         <v>2</v>
       </c>
-      <c r="F20" s="350" t="s">
+      <c r="F20" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="350" t="s">
+      <c r="G20" s="152" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="350" t="s">
+      <c r="B21" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="350" t="s">
+      <c r="C21" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="350" t="s">
+      <c r="D21" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="E21" s="350">
+      <c r="E21" s="152">
         <v>4</v>
       </c>
-      <c r="F21" s="350" t="s">
+      <c r="F21" s="152" t="s">
         <v>293</v>
       </c>
-      <c r="G21" s="350" t="s">
+      <c r="G21" s="152" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="350" t="s">
+      <c r="B22" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="350" t="s">
+      <c r="C22" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="350" t="s">
+      <c r="D22" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="E22" s="350">
+      <c r="E22" s="152">
         <v>6</v>
       </c>
-      <c r="F22" s="350" t="s">
+      <c r="F22" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="G22" s="350" t="s">
+      <c r="G22" s="152" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="350" t="s">
+      <c r="B23" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="350" t="s">
+      <c r="C23" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="350" t="s">
+      <c r="D23" s="152" t="s">
         <v>299</v>
       </c>
-      <c r="E23" s="350">
+      <c r="E23" s="152">
         <v>4</v>
       </c>
-      <c r="F23" s="350" t="s">
+      <c r="F23" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="350" t="s">
+      <c r="G23" s="152" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5369,6 +5382,16 @@
     <row r="100" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="H11:I11"/>
@@ -5379,16 +5402,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5399,47 +5412,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FCBE90-EC6C-4706-BFD9-A611646137BB}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="18.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="7" max="7" width="27.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -5468,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
@@ -5481,7 +5494,7 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -5490,12 +5503,12 @@
       <c r="G4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="172"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="179"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
@@ -5508,11 +5521,11 @@
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="173" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
@@ -5520,89 +5533,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5">
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="176"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="170"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="157"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="185"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="172"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="170"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="175" t="s">
+      <c r="H7" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="176"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="176"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="178" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="156" t="s">
+      <c r="G8" s="187"/>
+      <c r="H8" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="159"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="173"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="191"/>
       <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
@@ -5617,29 +5630,29 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.75">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -5720,7 +5733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="28">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -5747,7 +5760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.5">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -5798,6 +5811,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="H4:I4"/>
@@ -5811,8 +5826,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5822,47 +5835,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46066773-E181-44AE-9785-8C354D4BB985}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="20.140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="20.1796875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="184"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="194"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -5891,18 +5904,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="195"/>
       <c r="D4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="196" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -5911,54 +5924,54 @@
       <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="181" t="s">
+      <c r="H4" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="182"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="199"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="195"/>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="180" t="s">
+      <c r="E5" s="197"/>
+      <c r="F5" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="181" t="s">
+      <c r="G5" s="195"/>
+      <c r="H5" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="182"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5">
+      <c r="I5" s="199"/>
+    </row>
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="188"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="186"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="H6" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="191"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
@@ -5969,57 +5982,57 @@
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="186"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="182"/>
+      <c r="H7" s="199"/>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="195"/>
       <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="181" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="182"/>
-      <c r="H8" s="160" t="s">
+      <c r="G8" s="199"/>
+      <c r="H8" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="160"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="180"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="197"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="183" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="183"/>
+      <c r="I9" s="202"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="40" t="s">
@@ -6028,29 +6041,29 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.75">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6077,7 +6090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -6102,7 +6115,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="42.75">
+    <row r="16" spans="1:9" ht="28">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -6127,7 +6140,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="28">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -6203,6 +6216,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -6213,14 +6234,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6230,47 +6243,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183599C0-5866-4DE9-AD1C-8BF37B9F305A}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="24.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="24.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="33" customWidth="1"/>
     <col min="8" max="8" width="23" style="33" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="9" max="9" width="26.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -6299,32 +6312,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="205"/>
       <c r="D4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="E4" s="206" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="190"/>
+      <c r="H4" s="205"/>
       <c r="I4" s="71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.5">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="68" t="s">
         <v>13</v>
       </c>
@@ -6337,7 +6350,7 @@
       <c r="D5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="170"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="52" t="s">
         <v>86</v>
       </c>
@@ -6351,45 +6364,45 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5">
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="190"/>
+      <c r="C6" s="205"/>
       <c r="D6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="170"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="190"/>
+      <c r="I6" s="205"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="190"/>
+      <c r="C7" s="205"/>
       <c r="D7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="53" t="s">
         <v>87</v>
       </c>
@@ -6401,39 +6414,39 @@
       <c r="A8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="190"/>
+      <c r="C8" s="205"/>
       <c r="D8" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="204" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="190"/>
-      <c r="H8" s="189" t="s">
+      <c r="G8" s="205"/>
+      <c r="H8" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="190"/>
+      <c r="I8" s="205"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="190"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="189" t="s">
+      <c r="E9" s="173"/>
+      <c r="F9" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="190"/>
+      <c r="G9" s="205"/>
       <c r="H9" s="69" t="s">
         <v>67</v>
       </c>
@@ -6448,29 +6461,29 @@
       <c r="B11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="194"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="196"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5">
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="218"/>
+    </row>
+    <row r="14" spans="1:9" ht="28">
       <c r="A14" s="55" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.5">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="58">
         <v>4</v>
       </c>
@@ -6645,6 +6658,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -6658,8 +6673,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6669,47 +6682,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66325782-5EB1-4891-BFF5-F945DE3CC7D4}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="20.140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="20.1796875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="7" max="7" width="19.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -6738,18 +6751,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -6758,12 +6771,12 @@
       <c r="G4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="174"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="181"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
@@ -6776,57 +6789,57 @@
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="170"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="76" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="209"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5">
+      <c r="I5" s="222"/>
+    </row>
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="170"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="157"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="185"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="206"/>
+      <c r="C7" s="224"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="205" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="206"/>
+      <c r="G7" s="224"/>
       <c r="H7" s="38" t="s">
         <v>101</v>
       </c>
@@ -6838,43 +6851,43 @@
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="213"/>
+      <c r="C8" s="226"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="205" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="206"/>
-      <c r="H8" s="156" t="s">
+      <c r="G8" s="224"/>
+      <c r="H8" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="227" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="207"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="173"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="208" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="209"/>
+      <c r="I9" s="222"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="40" t="s">
@@ -6883,29 +6896,29 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.75">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6932,7 +6945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -7080,6 +7093,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -7090,13 +7110,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7110,43 +7123,43 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="18.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
     <col min="7" max="7" width="22" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -7175,18 +7188,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="222"/>
+      <c r="C4" s="228"/>
       <c r="D4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -7195,117 +7208,117 @@
       <c r="G4" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="226" t="s">
+      <c r="H4" s="232" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="172"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="179"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="233" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="228"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="223"/>
-      <c r="F5" s="229" t="s">
+      <c r="E5" s="229"/>
+      <c r="F5" s="235" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="230"/>
-      <c r="H5" s="208" t="s">
+      <c r="G5" s="236"/>
+      <c r="H5" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="209"/>
-    </row>
-    <row r="6" spans="1:9" ht="42.75">
+      <c r="I5" s="222"/>
+    </row>
+    <row r="6" spans="1:9" ht="42">
       <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="231"/>
+      <c r="C6" s="237"/>
       <c r="D6" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="224"/>
+      <c r="E6" s="230"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="157"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="185"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="238" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="233"/>
+      <c r="C7" s="239"/>
       <c r="D7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="214" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216" t="s">
+      <c r="G7" s="241"/>
+      <c r="H7" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="217"/>
+      <c r="I7" s="243"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="219"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="223"/>
-      <c r="F8" s="178" t="s">
+      <c r="E8" s="229"/>
+      <c r="F8" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="156" t="s">
+      <c r="G8" s="187"/>
+      <c r="H8" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="221"/>
+      <c r="C9" s="247"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="231"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="208" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="209"/>
+      <c r="I9" s="222"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="40" t="s">
@@ -7314,29 +7327,29 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1"/>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.75">
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -7363,7 +7376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -7388,7 +7401,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="28.5">
+    <row r="16" spans="1:9" ht="28">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -7438,7 +7451,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="42.75">
+    <row r="18" spans="1:9" ht="42">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -7487,6 +7500,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -7497,16 +7520,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7520,45 +7533,45 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="18.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="7" max="7" width="19.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="248" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A2" s="242"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5">
+      <c r="A2" s="248"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -7587,18 +7600,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="241"/>
+      <c r="C4" s="251"/>
       <c r="D4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -7607,131 +7620,131 @@
       <c r="G4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="235" t="s">
+      <c r="H4" s="252" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="244"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5">
+      <c r="I4" s="253"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="246"/>
+      <c r="C5" s="255"/>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="239" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="181" t="s">
+      <c r="G5" s="256"/>
+      <c r="H5" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="182"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5">
+      <c r="I5" s="199"/>
+    </row>
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="247"/>
+      <c r="C6" s="258"/>
       <c r="D6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="170"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="H6" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5">
+      <c r="I6" s="191"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="246"/>
+      <c r="C7" s="255"/>
       <c r="D7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="234" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="259" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="234"/>
-      <c r="H7" s="235" t="s">
+      <c r="G7" s="259"/>
+      <c r="H7" s="252" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="236"/>
+      <c r="I7" s="260"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="238"/>
+      <c r="C8" s="261"/>
       <c r="D8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="239" t="s">
+      <c r="E8" s="215"/>
+      <c r="F8" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="239"/>
-      <c r="H8" s="160" t="s">
+      <c r="G8" s="256"/>
+      <c r="H8" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="160"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="241"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="174"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="181" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="182"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1"/>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-    </row>
-    <row r="13" spans="1:9" ht="42.75">
+      <c r="I9" s="199"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" thickBot="1"/>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A12" s="153"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="1:9" ht="42">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7758,7 +7771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5">
+    <row r="14" spans="1:9" ht="28">
       <c r="A14" s="44">
         <v>1</v>
       </c>
@@ -7833,7 +7846,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="28">
       <c r="A17" s="44">
         <v>4</v>
       </c>
@@ -7858,7 +7871,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="42.75">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="44">
         <v>5</v>
       </c>
@@ -7885,6 +7898,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -7895,15 +7917,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7917,43 +7930,43 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33"/>
-    <col min="2" max="2" width="18.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="33"/>
+    <col min="2" max="2" width="18.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="33" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="96" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="33"/>
+    <col min="7" max="7" width="19.26953125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" style="96" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:12" ht="4.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.5">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:12" ht="28">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -7982,18 +7995,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75">
+    <row r="4" spans="1:12" ht="42">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="260"/>
+      <c r="C4" s="263"/>
       <c r="D4" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -8009,113 +8022,113 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5">
+    <row r="5" spans="1:12" ht="28">
       <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="262"/>
+      <c r="C5" s="265"/>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="263" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="266" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="264"/>
-      <c r="H5" s="257" t="s">
+      <c r="G5" s="267"/>
+      <c r="H5" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="258"/>
-    </row>
-    <row r="6" spans="1:12" ht="42.75">
+      <c r="I5" s="269"/>
+    </row>
+    <row r="6" spans="1:12" ht="28">
       <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="265"/>
+      <c r="C6" s="271"/>
       <c r="D6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="170"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="H6" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.5">
+      <c r="I6" s="191"/>
+    </row>
+    <row r="7" spans="1:12" ht="28">
       <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="260"/>
+      <c r="C7" s="263"/>
       <c r="D7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="252" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="265"/>
-      <c r="H7" s="250" t="s">
+      <c r="G7" s="271"/>
+      <c r="H7" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="251"/>
+      <c r="I7" s="275"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="252" t="s">
+      <c r="B8" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="253"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="254" t="s">
+      <c r="E8" s="215"/>
+      <c r="F8" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="255"/>
-      <c r="H8" s="160" t="s">
+      <c r="G8" s="278"/>
+      <c r="H8" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="160"/>
+      <c r="I8" s="191"/>
       <c r="L8" s="94"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="250" t="s">
+      <c r="B9" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="256"/>
+      <c r="C9" s="279"/>
       <c r="D9" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="174"/>
+      <c r="F9" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="257" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="258"/>
+      <c r="I9" s="269"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="40" t="s">
@@ -8124,29 +8137,29 @@
       <c r="B11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="248" t="s">
+      <c r="C11" s="272" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1"/>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.5">
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="273"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" thickBot="1"/>
+    <row r="13" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:12" ht="28">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -8173,7 +8186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75">
+    <row r="15" spans="1:12" ht="42">
       <c r="A15" s="44">
         <v>1</v>
       </c>
@@ -8200,7 +8213,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75">
+    <row r="16" spans="1:12" ht="42">
       <c r="A16" s="44">
         <v>2</v>
       </c>
@@ -8227,7 +8240,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="28">
       <c r="A17" s="44">
         <v>3</v>
       </c>
@@ -8254,7 +8267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.75">
+    <row r="18" spans="1:9" ht="42">
       <c r="A18" s="44">
         <v>4</v>
       </c>
@@ -8281,7 +8294,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="28">
       <c r="A19" s="44">
         <v>5</v>
       </c>
@@ -8321,6 +8334,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -8331,15 +8353,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8353,43 +8366,43 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="33" customWidth="1"/>
     <col min="5" max="5" width="20" style="33" customWidth="1"/>
     <col min="6" max="6" width="19" style="33" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="120" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="7" max="7" width="21.26953125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="120" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A1" s="276" t="s">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A1" s="280" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="276"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="122" t="s">
@@ -8420,16 +8433,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="281" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="269"/>
+      <c r="C4" s="282"/>
       <c r="D4" s="99"/>
-      <c r="E4" s="277" t="s">
+      <c r="E4" s="283" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -8438,92 +8451,92 @@
       <c r="G4" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="280" t="s">
+      <c r="H4" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="281"/>
-    </row>
-    <row r="5" spans="1:9" ht="42.75">
+      <c r="I4" s="287"/>
+    </row>
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="288" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="271"/>
+      <c r="C5" s="288"/>
       <c r="D5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="278"/>
-      <c r="F5" s="282" t="s">
+      <c r="E5" s="284"/>
+      <c r="F5" s="289" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="282"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
-    </row>
-    <row r="6" spans="1:9" ht="42.75">
+      <c r="G5" s="289"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
+    </row>
+    <row r="6" spans="1:9" ht="42">
       <c r="A6" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="284"/>
+      <c r="C6" s="293"/>
       <c r="D6" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="278"/>
+      <c r="E6" s="284"/>
       <c r="F6" s="15" t="s">
         <v>182</v>
       </c>
       <c r="G6" s="103"/>
-      <c r="H6" s="285" t="s">
+      <c r="H6" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="286"/>
-    </row>
-    <row r="7" spans="1:9" ht="42.75">
+      <c r="I6" s="295"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="270"/>
+      <c r="C7" s="296"/>
       <c r="D7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="278"/>
-      <c r="F7" s="266" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="297" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="268" t="s">
+      <c r="G7" s="298"/>
+      <c r="H7" s="281" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="269"/>
-    </row>
-    <row r="8" spans="1:9" ht="57">
+      <c r="I7" s="282"/>
+    </row>
+    <row r="8" spans="1:9" ht="42">
       <c r="A8" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="270" t="s">
+      <c r="B8" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="270"/>
+      <c r="C8" s="296"/>
       <c r="D8" s="99"/>
-      <c r="E8" s="278"/>
+      <c r="E8" s="284"/>
       <c r="F8" s="101" t="s">
         <v>185</v>
       </c>
       <c r="G8" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="271" t="s">
+      <c r="H8" s="288" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="271"/>
+      <c r="I8" s="288"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="121" t="s">
@@ -8532,19 +8545,19 @@
       <c r="B9" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="299" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="273"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="266" t="s">
+      <c r="D9" s="300"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="297" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="267"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="275"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.5">
+      <c r="G9" s="298"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
+    </row>
+    <row r="12" spans="1:9" ht="28">
       <c r="A12" s="106" t="s">
         <v>20</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42.75">
+    <row r="13" spans="1:9" ht="42">
       <c r="A13" s="111">
         <v>1</v>
       </c>
@@ -8596,7 +8609,7 @@
       </c>
       <c r="I13" s="125"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5">
+    <row r="14" spans="1:9" ht="28">
       <c r="A14" s="116">
         <v>2</v>
       </c>
@@ -8621,7 +8634,7 @@
       </c>
       <c r="I14" s="125"/>
     </row>
-    <row r="15" spans="1:9" ht="28.5">
+    <row r="15" spans="1:9" ht="28">
       <c r="A15" s="111">
         <v>3</v>
       </c>
@@ -8696,7 +8709,7 @@
       </c>
       <c r="I17" s="125"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="111">
         <v>6</v>
       </c>
@@ -8721,7 +8734,7 @@
       </c>
       <c r="I18" s="125"/>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="28">
       <c r="A19" s="116">
         <v>7</v>
       </c>
@@ -8748,6 +8761,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E9"/>
@@ -8764,7 +8778,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
